--- a/data/FIFA outcomes.xlsx
+++ b/data/FIFA outcomes.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14415" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
   <si>
     <t>Qualifiers</t>
   </si>
@@ -527,6 +528,33 @@
   <si>
     <t>playoff game</t>
   </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Third-place Final</t>
+  </si>
+  <si>
+    <t>Semi-final</t>
+  </si>
+  <si>
+    <t>Quarter-final</t>
+  </si>
+  <si>
+    <t>Round-of-16</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Loser</t>
+  </si>
+  <si>
+    <t>Winner Score</t>
+  </si>
+  <si>
+    <t>Loser Score</t>
+  </si>
 </sst>
 </file>
 
@@ -586,7 +614,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -849,23 +883,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1090,6 +1132,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1418,50 +1465,50 @@
   <dimension ref="A2:AO87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
     <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="1" customWidth="1"/>
     <col min="17" max="18" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="1"/>
     <col min="24" max="25" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="27" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="10.875" style="1"/>
+    <col min="27" max="27" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="1"/>
     <col min="29" max="30" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="10.83203125" style="1"/>
+    <col min="31" max="33" width="10.875" style="1"/>
     <col min="34" max="35" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="10.83203125" style="1"/>
-    <col min="38" max="38" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.875" style="1"/>
+    <col min="38" max="38" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="1"/>
+    <col min="41" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:41" hidden="1">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1930</v>
       </c>
@@ -1513,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" ref="AF3:AF21" si="0">M25</f>
+        <f t="shared" ref="AF3:AF5" si="0">M25</f>
         <v>0</v>
       </c>
       <c r="AK3" s="1">
@@ -1521,12 +1568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1934</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B21" si="1">B70</f>
+        <f t="shared" ref="B4:B5" si="1">B70</f>
         <v>Italy</v>
       </c>
       <c r="G4" s="1" t="str">
@@ -1554,11 +1601,11 @@
         <v>Hungary</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" ref="AK4:AK21" si="2">R26</f>
+        <f t="shared" ref="AK4:AK5" si="2">R26</f>
         <v>Sweden</v>
       </c>
     </row>
-    <row r="5" spans="1:41" hidden="1">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1938</v>
       </c>
@@ -1595,1359 +1642,1359 @@
         <v>Cuba</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1950</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1954</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1958</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1962</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1966</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1970</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1974</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1978</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1982</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-    </row>
-    <row r="15" spans="1:41">
-      <c r="A15" s="1">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>1986</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="16" t="str">
         <f t="shared" ref="B15:B21" si="3">B81</f>
         <v>Argentine</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
         <v>31579</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="16" t="str">
         <f t="shared" ref="G15:G21" si="4">C81</f>
         <v>West Germany</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
         <v>31580</v>
       </c>
-      <c r="L15" s="1" t="str">
+      <c r="L15" s="16" t="str">
         <f t="shared" ref="L15:L21" si="5">C59</f>
         <v>Belgium</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="16">
         <v>4</v>
       </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15" s="16">
+        <v>3</v>
+      </c>
+      <c r="P15" s="17">
         <v>31578</v>
       </c>
-      <c r="Q15" s="1" t="str">
+      <c r="Q15" s="16" t="str">
         <f t="shared" ref="Q15:Q21" si="6">H59</f>
         <v>France</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="1">
-        <v>2</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
+      <c r="S15" s="16">
+        <v>2</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
         <v>31580</v>
       </c>
-      <c r="V15" s="1" t="str">
+      <c r="V15" s="16" t="str">
         <f t="shared" ref="V15:V21" si="7">C37</f>
         <v>England</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
+      <c r="X15" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
         <v>31581</v>
       </c>
-      <c r="AA15" s="1" t="str">
+      <c r="AA15" s="16" t="str">
         <f t="shared" ref="AA15:AA21" si="8">H37</f>
         <v>Mexico</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AC15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="4">
+      <c r="AC15" s="16">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
         <v>31578</v>
       </c>
-      <c r="AF15" s="1" t="str">
+      <c r="AF15" s="16" t="str">
         <f t="shared" ref="AF15:AF21" si="9">M37</f>
         <v>Spain</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="16">
         <v>5</v>
       </c>
-      <c r="AI15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="4">
+      <c r="AI15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="17">
         <v>31581</v>
       </c>
-      <c r="AK15" s="1" t="str">
+      <c r="AK15" s="16" t="str">
         <f t="shared" ref="AK15:AK21" si="10">R37</f>
         <v>Brazil</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="16">
         <v>4</v>
       </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="4">
+      <c r="AN15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="17">
         <v>31579</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="1">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>1990</v>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" si="3"/>
         <v>West Germany</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
         <v>33048</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Argentine</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
         <v>33048</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="L16" s="16" t="str">
         <f t="shared" si="5"/>
         <v>England</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="N16" s="16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
         <v>33050</v>
       </c>
-      <c r="Q16" s="1" t="str">
+      <c r="Q16" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Italy</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
+      <c r="R16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="16">
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
         <v>33049</v>
       </c>
-      <c r="V16" s="1" t="str">
+      <c r="V16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>Czechoslovakia</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="16">
         <v>4</v>
       </c>
-      <c r="Y16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="4">
+      <c r="Y16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="17">
         <v>33047</v>
       </c>
-      <c r="AA16" s="1" t="str">
+      <c r="AA16" s="16" t="str">
         <f t="shared" si="8"/>
         <v>Yugoslavia</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="4">
+      <c r="AC16" s="16">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="17">
         <v>33050</v>
       </c>
-      <c r="AF16" s="1" t="str">
+      <c r="AF16" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Cameroon</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AH16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="4">
+      <c r="AH16" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="17">
         <v>33047</v>
       </c>
-      <c r="AK16" s="1" t="str">
+      <c r="AK16" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Republic of Ireland</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AL16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="16">
         <v>5</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AN16" s="16">
         <v>4</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AO16" s="17">
         <v>33049</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="1">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>1994</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" si="3"/>
         <v>Brazil</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
         <v>34519</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Italy</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="1">
-        <v>2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="I17" s="16">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
         <v>34520</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L17" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Sweden</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="1">
-        <v>3</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="N17" s="16">
+        <v>3</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1</v>
+      </c>
+      <c r="P17" s="18">
         <v>34518</v>
       </c>
-      <c r="Q17" s="1" t="str">
+      <c r="Q17" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Bulgaria</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="1">
-        <v>3</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5">
+      <c r="S17" s="16">
+        <v>3</v>
+      </c>
+      <c r="T17" s="16">
+        <v>1</v>
+      </c>
+      <c r="U17" s="18">
         <v>34520</v>
       </c>
-      <c r="V17" s="1" t="str">
+      <c r="V17" s="16" t="str">
         <f t="shared" si="7"/>
         <v>Netherlands</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
+      <c r="X17" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="18">
         <v>34519</v>
       </c>
-      <c r="AA17" s="1" t="str">
+      <c r="AA17" s="16" t="str">
         <f t="shared" si="8"/>
         <v>Spain</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AB17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="5">
+      <c r="AC17" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="18">
         <v>34517</v>
       </c>
-      <c r="AF17" s="1" t="str">
+      <c r="AF17" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Romania</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AH17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ17" s="5">
+      <c r="AH17" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="18">
         <v>34518</v>
       </c>
-      <c r="AK17" s="1" t="str">
+      <c r="AK17" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Germany</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AL17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AM17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="5">
+      <c r="AM17" s="16">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="16">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="18">
         <v>34517</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="1">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>1998</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="3"/>
         <v>France</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
         <v>35974</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G18" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Brazil</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="16">
         <v>4</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="J18" s="16">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
         <v>35973</v>
       </c>
-      <c r="L18" s="1" t="str">
+      <c r="L18" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Croatia</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
         <v>35976</v>
       </c>
-      <c r="Q18" s="1" t="str">
+      <c r="Q18" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Netherlands</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="1">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5">
+      <c r="S18" s="16">
+        <v>2</v>
+      </c>
+      <c r="T18" s="16">
+        <v>1</v>
+      </c>
+      <c r="U18" s="18">
         <v>35975</v>
       </c>
-      <c r="V18" s="1" t="str">
+      <c r="V18" s="16" t="str">
         <f t="shared" si="7"/>
         <v>Italy</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="X18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
+      <c r="X18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
         <v>35973</v>
       </c>
-      <c r="AA18" s="1" t="str">
+      <c r="AA18" s="16" t="str">
         <f t="shared" si="8"/>
         <v>Denmark</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="16">
         <v>4</v>
       </c>
-      <c r="AD18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="5">
+      <c r="AD18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="18">
         <v>35974</v>
       </c>
-      <c r="AF18" s="1" t="str">
+      <c r="AF18" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Germany</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="5">
+      <c r="AH18" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="18">
         <v>35975</v>
       </c>
-      <c r="AK18" s="1" t="str">
+      <c r="AK18" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Argentine</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AL18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="16">
         <v>4</v>
       </c>
-      <c r="AN18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO18" s="5">
+      <c r="AN18" s="16">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="18">
         <v>35976</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="1">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
         <v>2002</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="3"/>
         <v>Brazil</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
         <v>37424</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="G19" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Germany</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="I19" s="16">
+        <v>1</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
         <v>37422</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="L19" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Turkey</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="N19" s="16">
+        <v>1</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
         <v>37425</v>
       </c>
-      <c r="Q19" s="1" t="str">
+      <c r="Q19" s="16" t="str">
         <f t="shared" si="6"/>
         <v>South Korea</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="1">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5">
+      <c r="S19" s="16">
+        <v>2</v>
+      </c>
+      <c r="T19" s="16">
+        <v>1</v>
+      </c>
+      <c r="U19" s="18">
         <v>37425</v>
       </c>
-      <c r="V19" s="1" t="str">
+      <c r="V19" s="16" t="str">
         <f t="shared" si="7"/>
         <v>England</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="X19" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
+      <c r="X19" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
         <v>37422</v>
       </c>
-      <c r="AA19" s="1" t="str">
+      <c r="AA19" s="16" t="str">
         <f t="shared" si="8"/>
         <v>United States</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AC19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
+      <c r="AC19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="18">
         <v>37424</v>
       </c>
-      <c r="AF19" s="1" t="str">
+      <c r="AF19" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Senegal</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AG19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="5">
+      <c r="AH19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="18">
         <v>37423</v>
       </c>
-      <c r="AK19" s="1" t="str">
+      <c r="AK19" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Spain</v>
       </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AL19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AM19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO19" s="5">
+      <c r="AM19" s="16">
+        <v>3</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="18">
         <v>37423</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="1">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>2006</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="3"/>
         <v>Italy</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
         <v>38894</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G20" s="16" t="str">
         <f t="shared" si="4"/>
         <v>France</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="1">
-        <v>3</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="I20" s="16">
+        <v>3</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
         <v>38895</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="L20" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="N20" s="16">
+        <v>2</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
         <v>38892</v>
       </c>
-      <c r="Q20" s="1" t="str">
+      <c r="Q20" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Portugal</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
+      <c r="S20" s="16">
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
         <v>38893</v>
       </c>
-      <c r="V20" s="1" t="str">
+      <c r="V20" s="16" t="str">
         <f t="shared" si="7"/>
         <v>Ukraine</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="5">
+      <c r="X20" s="16">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="18">
         <v>38894</v>
       </c>
-      <c r="AA20" s="1" t="str">
+      <c r="AA20" s="16" t="str">
         <f t="shared" si="8"/>
         <v>Brazil</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AC20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="5">
+      <c r="AC20" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="18">
         <v>38895</v>
       </c>
-      <c r="AF20" s="1" t="str">
+      <c r="AF20" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Argentine</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="5">
+      <c r="AH20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="18">
         <v>38892</v>
       </c>
-      <c r="AK20" s="1" t="str">
+      <c r="AK20" s="16" t="str">
         <f t="shared" si="10"/>
         <v>England</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AL20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AM20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="5">
+      <c r="AM20" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="18">
         <v>38893</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="1">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>2010</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="3"/>
         <v>Spain</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
         <v>40358</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="G21" s="16" t="str">
         <f t="shared" si="4"/>
         <v>Netherlands</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="I21" s="16">
+        <v>2</v>
+      </c>
+      <c r="J21" s="16">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
         <v>40357</v>
       </c>
-      <c r="L21" s="1" t="str">
+      <c r="L21" s="16" t="str">
         <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="16">
         <v>4</v>
       </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="O21" s="16">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
         <v>40356</v>
       </c>
-      <c r="Q21" s="1" t="str">
+      <c r="Q21" s="16" t="str">
         <f t="shared" si="6"/>
         <v>Uruguay</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="18">
         <v>40355</v>
       </c>
-      <c r="V21" s="1" t="str">
+      <c r="V21" s="16" t="str">
         <f t="shared" si="7"/>
         <v>Paraguay</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="16">
         <v>5</v>
       </c>
-      <c r="Y21" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="5">
+      <c r="Y21" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="18">
         <v>40358</v>
       </c>
-      <c r="AA21" s="1" t="str">
+      <c r="AA21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>Brazil</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AC21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5">
+      <c r="AC21" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="18">
         <v>40357</v>
       </c>
-      <c r="AF21" s="1" t="str">
+      <c r="AF21" s="16" t="str">
         <f t="shared" si="9"/>
         <v>Argentine</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="5">
+      <c r="AH21" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="18">
         <v>40356</v>
       </c>
-      <c r="AK21" s="1" t="str">
+      <c r="AK21" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Ghana</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AL21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AM21" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="5">
+      <c r="AM21" s="16">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="18">
         <v>40355</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2958,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:41" hidden="1">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1930</v>
       </c>
@@ -2979,7 +3026,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="26" spans="1:41" hidden="1">
+    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1934</v>
       </c>
@@ -3012,7 +3059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:41" hidden="1">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1938</v>
       </c>
@@ -3045,33 +3092,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1950</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="1:41">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1954</v>
       </c>
@@ -3088,7 +3135,7 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>19902</v>
       </c>
       <c r="G29" s="1" t="str">
@@ -3104,7 +3151,7 @@
       <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="14">
         <v>19902</v>
       </c>
       <c r="L29" s="1" t="str">
@@ -3140,7 +3187,7 @@
         <v>19901</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1958</v>
       </c>
@@ -3209,7 +3256,7 @@
         <v>21355</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1962</v>
       </c>
@@ -3278,7 +3325,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1966</v>
       </c>
@@ -3347,7 +3394,7 @@
         <v>24311</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1970</v>
       </c>
@@ -3416,585 +3463,585 @@
         <v>25733</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1974</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1978</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1982</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
       <c r="U36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AE36" s="5"/>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36">
-      <c r="A37" s="1">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>1986</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Argentine</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1</v>
+      </c>
+      <c r="F37" s="17">
         <v>31585</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G37" s="16" t="str">
         <f t="shared" ref="G37:G43" si="13">C81</f>
         <v>West Germany</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="16">
         <v>4</v>
       </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
         <v>31584</v>
       </c>
-      <c r="L37" s="1" t="str">
+      <c r="L37" s="16" t="str">
         <f t="shared" ref="L37:L43" si="14">C59</f>
         <v>Belgium</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="16">
         <v>5</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="16">
         <v>4</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="17">
         <v>31585</v>
       </c>
-      <c r="Q37" s="1" t="str">
+      <c r="Q37" s="16" t="str">
         <f t="shared" si="12"/>
         <v>France</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="16">
         <v>4</v>
       </c>
-      <c r="T37" s="1">
-        <v>3</v>
-      </c>
-      <c r="U37" s="4">
+      <c r="T37" s="16">
+        <v>3</v>
+      </c>
+      <c r="U37" s="17">
         <v>31584</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
-      <c r="A38" s="1">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>1990</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="11"/>
         <v>West Germany</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
         <v>33055</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G38" s="16" t="str">
         <f t="shared" si="13"/>
         <v>Argentine</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="1">
-        <v>3</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="I38" s="16">
+        <v>3</v>
+      </c>
+      <c r="J38" s="16">
+        <v>2</v>
+      </c>
+      <c r="K38" s="17">
         <v>33054</v>
       </c>
-      <c r="L38" s="1" t="str">
+      <c r="L38" s="16" t="str">
         <f t="shared" si="14"/>
         <v>England</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="1">
-        <v>3</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2</v>
-      </c>
-      <c r="P38" s="4">
+      <c r="N38" s="16">
+        <v>3</v>
+      </c>
+      <c r="O38" s="16">
+        <v>2</v>
+      </c>
+      <c r="P38" s="17">
         <v>33055</v>
       </c>
-      <c r="Q38" s="1" t="str">
+      <c r="Q38" s="16" t="str">
         <f t="shared" si="12"/>
         <v>Italy</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="1">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="4">
+      <c r="S38" s="16">
+        <v>1</v>
+      </c>
+      <c r="T38" s="16">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
         <v>33054</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
-      <c r="A39" s="1">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>1994</v>
       </c>
-      <c r="B39" s="1" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Brazil</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="D39" s="16">
+        <v>3</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="17">
         <v>34524</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G39" s="16" t="str">
         <f t="shared" si="13"/>
         <v>Italy</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
+      <c r="I39" s="16">
+        <v>2</v>
+      </c>
+      <c r="J39" s="16">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17">
         <v>34524</v>
       </c>
-      <c r="L39" s="1" t="str">
+      <c r="L39" s="16" t="str">
         <f t="shared" si="14"/>
         <v>Sweden</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="16">
         <v>5</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="16">
         <v>4</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="17">
         <v>34525</v>
       </c>
-      <c r="Q39" s="1" t="str">
+      <c r="Q39" s="16" t="str">
         <f t="shared" si="12"/>
         <v>Bulgaria</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="1">
-        <v>2</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4">
+      <c r="S39" s="16">
+        <v>2</v>
+      </c>
+      <c r="T39" s="16">
+        <v>1</v>
+      </c>
+      <c r="U39" s="17">
         <v>34525</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
-      <c r="A40" s="1">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
         <v>1998</v>
       </c>
-      <c r="B40" s="1" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" si="11"/>
         <v>France</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="16">
         <v>4</v>
       </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="E40" s="16">
+        <v>3</v>
+      </c>
+      <c r="F40" s="17">
         <f>I40</f>
         <v>3</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G40" s="16" t="str">
         <f t="shared" si="13"/>
         <v>Brazil</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="1">
-        <v>3</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="I40" s="16">
+        <v>3</v>
+      </c>
+      <c r="J40" s="16">
+        <v>2</v>
+      </c>
+      <c r="K40" s="17">
         <v>35979</v>
       </c>
-      <c r="L40" s="1" t="str">
+      <c r="L40" s="16" t="str">
         <f t="shared" si="14"/>
         <v>Croatia</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="1">
-        <v>3</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
+      <c r="N40" s="16">
+        <v>3</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
         <v>35980</v>
       </c>
-      <c r="Q40" s="1" t="str">
+      <c r="Q40" s="16" t="str">
         <f t="shared" si="12"/>
         <v>Netherlands</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="1">
-        <v>2</v>
-      </c>
-      <c r="T40" s="1">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
+      <c r="S40" s="16">
+        <v>2</v>
+      </c>
+      <c r="T40" s="16">
+        <v>1</v>
+      </c>
+      <c r="U40" s="17">
         <v>35980</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
-      <c r="A41" s="1">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>2002</v>
       </c>
-      <c r="B41" s="1" t="str">
+      <c r="B41" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Brazil</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="D41" s="16">
+        <v>2</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17">
         <v>37428</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G41" s="16" t="str">
         <f t="shared" si="13"/>
         <v>Germany</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="I41" s="16">
+        <v>1</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
         <v>37428</v>
       </c>
-      <c r="L41" s="1" t="str">
+      <c r="L41" s="16" t="str">
         <f t="shared" si="14"/>
         <v>Turkey</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
+      <c r="N41" s="16">
+        <v>1</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
         <v>37429</v>
       </c>
-      <c r="Q41" s="1" t="str">
+      <c r="Q41" s="16" t="str">
         <f t="shared" si="12"/>
         <v>South Korea</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="16">
         <v>5</v>
       </c>
-      <c r="T41" s="1">
-        <v>3</v>
-      </c>
-      <c r="U41" s="4">
+      <c r="T41" s="16">
+        <v>3</v>
+      </c>
+      <c r="U41" s="17">
         <v>37429</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
-      <c r="A42" s="1">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
         <v>2006</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Italy</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="D42" s="16">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
         <v>38898</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="G42" s="16" t="str">
         <f t="shared" si="13"/>
         <v>France</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="I42" s="16">
+        <v>1</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
         <v>38899</v>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L42" s="16" t="str">
         <f t="shared" si="14"/>
         <v>Germany</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="16">
         <v>4</v>
       </c>
-      <c r="O42" s="1">
-        <v>2</v>
-      </c>
-      <c r="P42" s="4">
+      <c r="O42" s="16">
+        <v>2</v>
+      </c>
+      <c r="P42" s="17">
         <v>38898</v>
       </c>
-      <c r="Q42" s="1" t="str">
+      <c r="Q42" s="16" t="str">
         <f t="shared" si="12"/>
         <v>Portugal</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="1">
-        <v>3</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
+      <c r="S42" s="16">
+        <v>3</v>
+      </c>
+      <c r="T42" s="16">
+        <v>1</v>
+      </c>
+      <c r="U42" s="17">
         <v>38899</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
-      <c r="A43" s="1">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
         <v>2010</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Spain</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="D43" s="16">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
         <v>40362</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="G43" s="16" t="str">
         <f t="shared" si="13"/>
         <v>Netherlands</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="1">
-        <v>2</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="4">
+      <c r="I43" s="16">
+        <v>2</v>
+      </c>
+      <c r="J43" s="16">
+        <v>1</v>
+      </c>
+      <c r="K43" s="17">
         <v>40361</v>
       </c>
-      <c r="L43" s="1" t="str">
+      <c r="L43" s="16" t="str">
         <f t="shared" si="14"/>
         <v>Germany</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="16">
         <v>4</v>
       </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="4">
+      <c r="O43" s="16">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
         <v>40362</v>
       </c>
-      <c r="Q43" s="1" t="str">
+      <c r="Q43" s="16" t="str">
         <f t="shared" si="12"/>
         <v>Uruguay</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="16">
         <v>4</v>
       </c>
-      <c r="T43" s="1">
-        <v>2</v>
-      </c>
-      <c r="U43" s="4">
+      <c r="T43" s="16">
+        <v>2</v>
+      </c>
+      <c r="U43" s="17">
         <v>40361</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1930</v>
       </c>
@@ -4013,7 +4060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1">
+    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1934</v>
       </c>
@@ -4032,7 +4079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1938</v>
       </c>
@@ -4051,40 +4098,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="1">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
         <v>1950</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" s="10" t="str">
         <f t="shared" si="15"/>
         <v>Uruguay</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="16">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10">
+        <v>2</v>
+      </c>
+      <c r="F50" s="20">
         <v>18457</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="G50" s="10" t="str">
         <f t="shared" si="16"/>
         <v>Brazil</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="10">
         <v>6</v>
       </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="18">
+      <c r="J50" s="10">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9">
         <v>18457</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -4103,522 +4150,522 @@
         <v>18453</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="1">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
         <v>1954</v>
       </c>
-      <c r="B51" s="1" t="str">
+      <c r="B51" s="10" t="str">
         <f t="shared" si="15"/>
         <v>West Germany</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="10">
         <v>6</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
         <v>19905</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="G51" s="10" t="str">
         <f t="shared" si="16"/>
         <v>Hungary</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="H51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="10">
         <v>4</v>
       </c>
-      <c r="J51" s="1">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="J51" s="10">
+        <v>2</v>
+      </c>
+      <c r="K51" s="9">
         <v>19905</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="1">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
         <v>1958</v>
       </c>
-      <c r="B52" s="1" t="str">
+      <c r="B52" s="10" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="10">
         <v>5</v>
       </c>
-      <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="E52" s="10">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9">
         <v>21360</v>
       </c>
-      <c r="G52" s="1" t="str">
+      <c r="G52" s="10" t="str">
         <f t="shared" si="16"/>
         <v>Sweden</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="1">
-        <v>3</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="4">
+      <c r="I52" s="10">
+        <v>3</v>
+      </c>
+      <c r="J52" s="10">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9">
         <v>21360</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="1">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
         <v>1962</v>
       </c>
-      <c r="B53" s="1" t="str">
+      <c r="B53" s="10" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="10">
         <v>4</v>
       </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="E53" s="10">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
         <v>22810</v>
       </c>
-      <c r="G53" s="1" t="str">
+      <c r="G53" s="10" t="str">
         <f t="shared" si="16"/>
         <v>Czechoslovakia</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="1">
-        <v>3</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4">
+      <c r="I53" s="10">
+        <v>3</v>
+      </c>
+      <c r="J53" s="10">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9">
         <v>22810</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="1">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
         <v>1966</v>
       </c>
-      <c r="B54" s="1" t="str">
+      <c r="B54" s="10" t="str">
         <f t="shared" si="15"/>
         <v>England</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="D54" s="10">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
         <v>24314</v>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="G54" s="10" t="str">
         <f t="shared" si="16"/>
         <v>West Germany</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="1">
-        <v>2</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
+      <c r="I54" s="10">
+        <v>2</v>
+      </c>
+      <c r="J54" s="10">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9">
         <v>24313</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="1">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
         <v>1970</v>
       </c>
-      <c r="B55" s="1" t="str">
+      <c r="B55" s="10" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="C55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="10">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
         <v>25736</v>
       </c>
-      <c r="G55" s="1" t="str">
+      <c r="G55" s="10" t="str">
         <f t="shared" si="16"/>
         <v>Italy</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="10">
         <v>4</v>
       </c>
-      <c r="J55" s="1">
-        <v>3</v>
-      </c>
-      <c r="K55" s="4">
+      <c r="J55" s="10">
+        <v>3</v>
+      </c>
+      <c r="K55" s="9">
         <v>25736</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="1">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
         <v>1974</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="8"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="1">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
         <v>1978</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="1">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
         <v>1982</v>
       </c>
-      <c r="B58" s="1" t="str">
+      <c r="B58" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Italy</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="D58" s="16">
+        <v>2</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="17">
         <v>30140</v>
       </c>
-      <c r="G58" s="1" t="str">
+      <c r="G58" s="16" t="str">
         <f t="shared" si="16"/>
         <v>West Germany</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="16">
         <v>5</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="16">
         <v>4</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="17">
         <v>30140</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="1">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
         <v>1986</v>
       </c>
-      <c r="B59" s="1" t="str">
+      <c r="B59" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Argentine</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="D59" s="16">
+        <v>2</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17">
         <v>31588</v>
       </c>
-      <c r="G59" s="1" t="str">
+      <c r="G59" s="16" t="str">
         <f t="shared" si="16"/>
         <v>West Germany</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
+      <c r="I59" s="16">
+        <v>2</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
         <v>31588</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="1">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
         <v>1990</v>
       </c>
-      <c r="B60" s="1" t="str">
+      <c r="B60" s="16" t="str">
         <f t="shared" si="15"/>
         <v>West Germany</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="16">
         <v>4</v>
       </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="E60" s="16">
+        <v>3</v>
+      </c>
+      <c r="F60" s="17">
         <v>33058</v>
       </c>
-      <c r="G60" s="1" t="str">
+      <c r="G60" s="16" t="str">
         <f t="shared" si="16"/>
         <v>Argentine</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="16">
         <v>4</v>
       </c>
-      <c r="J60" s="1">
-        <v>3</v>
-      </c>
-      <c r="K60" s="4">
+      <c r="J60" s="16">
+        <v>3</v>
+      </c>
+      <c r="K60" s="17">
         <v>33057</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="1">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
         <v>1994</v>
       </c>
-      <c r="B61" s="1" t="str">
+      <c r="B61" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="D61" s="16">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
         <v>34528</v>
       </c>
-      <c r="G61" s="1" t="str">
+      <c r="G61" s="16" t="str">
         <f t="shared" si="16"/>
         <v>Italy</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I61" s="1">
-        <v>2</v>
-      </c>
-      <c r="J61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="4">
+      <c r="I61" s="16">
+        <v>2</v>
+      </c>
+      <c r="J61" s="16">
+        <v>1</v>
+      </c>
+      <c r="K61" s="17">
         <v>34528</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="1">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
         <v>1998</v>
       </c>
-      <c r="B62" s="1" t="str">
+      <c r="B62" s="16" t="str">
         <f t="shared" si="15"/>
         <v>France</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="D62" s="16">
+        <v>2</v>
+      </c>
+      <c r="E62" s="16">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17">
         <v>35984</v>
       </c>
-      <c r="G62" s="1" t="str">
+      <c r="G62" s="16" t="str">
         <f t="shared" si="16"/>
         <v>Brazil</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="16">
         <v>4</v>
       </c>
-      <c r="J62" s="1">
-        <v>2</v>
-      </c>
-      <c r="K62" s="4">
+      <c r="J62" s="16">
+        <v>2</v>
+      </c>
+      <c r="K62" s="17">
         <v>35983</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="1">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
         <v>2002</v>
       </c>
-      <c r="B63" s="1" t="str">
+      <c r="B63" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="D63" s="16">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
         <v>37433</v>
       </c>
-      <c r="G63" s="1" t="str">
+      <c r="G63" s="16" t="str">
         <f t="shared" si="16"/>
         <v>Germany</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
+      <c r="I63" s="16">
+        <v>1</v>
+      </c>
+      <c r="J63" s="16">
+        <v>0</v>
+      </c>
+      <c r="K63" s="17">
         <v>37432</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="1">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
         <v>2006</v>
       </c>
-      <c r="B64" s="1" t="str">
+      <c r="B64" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Italy</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="D64" s="16">
+        <v>2</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17">
         <v>38902</v>
       </c>
-      <c r="G64" s="1" t="str">
+      <c r="G64" s="16" t="str">
         <f t="shared" si="16"/>
         <v>France</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
+      <c r="I64" s="16">
+        <v>1</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
         <v>38903</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
         <v>2010</v>
       </c>
-      <c r="B65" s="1" t="str">
+      <c r="B65" s="16" t="str">
         <f t="shared" si="15"/>
         <v>Spain</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="D65" s="16">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17">
         <v>40366</v>
       </c>
-      <c r="G65" s="1" t="str">
+      <c r="G65" s="16" t="str">
         <f t="shared" si="16"/>
         <v>Netherlands</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="1">
-        <v>3</v>
-      </c>
-      <c r="J65" s="1">
-        <v>2</v>
-      </c>
-      <c r="K65" s="4">
+      <c r="H65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="16">
+        <v>3</v>
+      </c>
+      <c r="J65" s="16">
+        <v>2</v>
+      </c>
+      <c r="K65" s="17">
         <v>40365</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -4628,12 +4675,12 @@
       <c r="C68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1930</v>
       </c>
@@ -4644,7 +4691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1934</v>
       </c>
@@ -4655,7 +4702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1938</v>
       </c>
@@ -4666,584 +4713,590 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
         <v>1950</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
+      <c r="D72" s="16">
+        <v>2</v>
+      </c>
+      <c r="E72" s="16">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17">
         <v>18460</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="1">
-        <v>3</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4">
+      <c r="I72" s="16">
+        <v>3</v>
+      </c>
+      <c r="J72" s="16">
+        <v>1</v>
+      </c>
+      <c r="K72" s="17">
         <v>18460</v>
       </c>
-      <c r="L72" s="10"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1">
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
         <v>1954</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="1">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="4">
+      <c r="D73" s="16">
+        <v>3</v>
+      </c>
+      <c r="E73" s="16">
+        <v>2</v>
+      </c>
+      <c r="F73" s="17">
         <v>19909</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="1">
-        <v>3</v>
-      </c>
-      <c r="J73" s="1">
-        <v>1</v>
-      </c>
-      <c r="K73" s="4">
+      <c r="H73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="16">
+        <v>3</v>
+      </c>
+      <c r="J73" s="16">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17">
         <v>19908</v>
       </c>
-      <c r="L73" s="10"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
         <v>1958</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="16">
         <v>5</v>
       </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="4">
+      <c r="E74" s="16">
+        <v>2</v>
+      </c>
+      <c r="F74" s="17">
         <v>21365</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="16">
         <v>6</v>
       </c>
-      <c r="J74" s="1">
-        <v>3</v>
-      </c>
-      <c r="K74" s="4">
+      <c r="J74" s="16">
+        <v>3</v>
+      </c>
+      <c r="K74" s="17">
         <v>21364</v>
       </c>
-      <c r="L74" s="10"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
         <v>1962</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="1">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4">
+      <c r="D75" s="16">
+        <v>3</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1</v>
+      </c>
+      <c r="F75" s="17">
         <v>22814</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4">
+      <c r="I75" s="16">
+        <v>1</v>
+      </c>
+      <c r="J75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="17">
         <v>22813</v>
       </c>
-      <c r="L75" s="10"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
         <v>1966</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="16">
         <v>4</v>
       </c>
-      <c r="E76" s="1">
-        <v>2</v>
-      </c>
-      <c r="F76" s="4">
+      <c r="E76" s="16">
+        <v>2</v>
+      </c>
+      <c r="F76" s="17">
         <v>24318</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I76" s="1">
-        <v>2</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="K76" s="4">
+      <c r="I76" s="16">
+        <v>2</v>
+      </c>
+      <c r="J76" s="16">
+        <v>1</v>
+      </c>
+      <c r="K76" s="17">
         <v>24316</v>
       </c>
-      <c r="L76" s="10"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1">
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
         <v>1970</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="16">
         <v>4</v>
       </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E77" s="16">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17">
         <v>25740</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="4">
+      <c r="H77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="16">
+        <v>1</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="17">
         <v>25739</v>
       </c>
-      <c r="L77" s="10"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1">
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
         <v>1974</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="1">
-        <v>2</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
+      <c r="D78" s="16">
+        <v>2</v>
+      </c>
+      <c r="E78" s="16">
+        <v>1</v>
+      </c>
+      <c r="F78" s="17">
         <v>27217</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
+      <c r="I78" s="16">
+        <v>1</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="17">
         <v>27216</v>
       </c>
-      <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1">
+      <c r="L78" s="10"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
         <v>1978</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="D79" s="16">
+        <v>3</v>
+      </c>
+      <c r="E79" s="16">
+        <v>1</v>
+      </c>
+      <c r="F79" s="17">
         <v>28666</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="1">
-        <v>2</v>
-      </c>
-      <c r="J79" s="1">
-        <v>1</v>
-      </c>
-      <c r="K79" s="4">
+      <c r="I79" s="16">
+        <v>2</v>
+      </c>
+      <c r="J79" s="16">
+        <v>1</v>
+      </c>
+      <c r="K79" s="17">
         <v>28665</v>
       </c>
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1">
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
         <v>1982</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="1">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4">
+      <c r="D80" s="16">
+        <v>3</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1</v>
+      </c>
+      <c r="F80" s="17">
         <v>30143</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="1">
-        <v>3</v>
-      </c>
-      <c r="J80" s="1">
-        <v>2</v>
-      </c>
-      <c r="K80" s="4">
+      <c r="I80" s="16">
+        <v>3</v>
+      </c>
+      <c r="J80" s="16">
+        <v>2</v>
+      </c>
+      <c r="K80" s="17">
         <v>30142</v>
       </c>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1">
+      <c r="L80" s="10"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
         <v>1986</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="1">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1">
-        <v>2</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="D81" s="16">
+        <v>3</v>
+      </c>
+      <c r="E81" s="16">
+        <v>2</v>
+      </c>
+      <c r="F81" s="17">
         <v>31592</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="16">
         <v>4</v>
       </c>
-      <c r="J81" s="1">
-        <v>2</v>
-      </c>
-      <c r="K81" s="4">
+      <c r="J81" s="16">
+        <v>2</v>
+      </c>
+      <c r="K81" s="17">
         <v>31591</v>
       </c>
-      <c r="L81" s="10"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1">
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
         <v>1990</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="D82" s="16">
+        <v>1</v>
+      </c>
+      <c r="E82" s="16">
+        <v>0</v>
+      </c>
+      <c r="F82" s="17">
         <v>33062</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="1">
-        <v>2</v>
-      </c>
-      <c r="J82" s="1">
-        <v>1</v>
-      </c>
-      <c r="K82" s="4">
+      <c r="I82" s="16">
+        <v>2</v>
+      </c>
+      <c r="J82" s="16">
+        <v>1</v>
+      </c>
+      <c r="K82" s="17">
         <v>33061</v>
       </c>
-      <c r="L82" s="10"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
         <v>1994</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="1">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="D83" s="16">
+        <v>3</v>
+      </c>
+      <c r="E83" s="16">
+        <v>2</v>
+      </c>
+      <c r="F83" s="17">
         <v>34532</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="16">
         <v>4</v>
       </c>
-      <c r="J83" s="1">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="17">
         <v>34531</v>
       </c>
-      <c r="L83" s="10"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1">
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
         <v>1998</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4">
+      <c r="D84" s="16">
+        <v>3</v>
+      </c>
+      <c r="E84" s="16">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
         <v>35988</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="1">
-        <v>2</v>
-      </c>
-      <c r="J84" s="1">
-        <v>1</v>
-      </c>
-      <c r="K84" s="4">
+      <c r="I84" s="16">
+        <v>2</v>
+      </c>
+      <c r="J84" s="16">
+        <v>1</v>
+      </c>
+      <c r="K84" s="17">
         <v>35987</v>
       </c>
-      <c r="L84" s="10"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1">
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
         <v>2002</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="1">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="D85" s="16">
+        <v>2</v>
+      </c>
+      <c r="E85" s="16">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
         <v>37437</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="1">
-        <v>3</v>
-      </c>
-      <c r="J85" s="1">
-        <v>2</v>
-      </c>
-      <c r="K85" s="4">
+      <c r="I85" s="16">
+        <v>3</v>
+      </c>
+      <c r="J85" s="16">
+        <v>2</v>
+      </c>
+      <c r="K85" s="17">
         <v>37436</v>
       </c>
-      <c r="L85" s="10"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1">
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
         <v>2006</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="16">
         <v>5</v>
       </c>
-      <c r="E86" s="1">
-        <v>3</v>
-      </c>
-      <c r="F86" s="4">
+      <c r="E86" s="16">
+        <v>3</v>
+      </c>
+      <c r="F86" s="17">
         <v>38907</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="1">
-        <v>3</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1</v>
-      </c>
-      <c r="K86" s="4">
+      <c r="I86" s="16">
+        <v>3</v>
+      </c>
+      <c r="J86" s="16">
+        <v>1</v>
+      </c>
+      <c r="K86" s="17">
         <v>38906</v>
       </c>
-      <c r="L86" s="10"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1">
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
         <v>2010</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>3</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="D87" s="16">
+        <v>1</v>
+      </c>
+      <c r="E87" s="16">
+        <v>3</v>
+      </c>
+      <c r="F87" s="17">
         <v>40370</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I87" s="1">
-        <v>3</v>
-      </c>
-      <c r="J87" s="1">
-        <v>2</v>
-      </c>
-      <c r="K87" s="4">
+      <c r="H87" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
+      <c r="J87" s="16">
+        <v>2</v>
+      </c>
+      <c r="K87" s="17">
         <v>40369</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:AN6"/>
+    <mergeCell ref="B7:AN7"/>
+    <mergeCell ref="B8:AN8"/>
+    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B35:T35"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="B9:AN9"/>
     <mergeCell ref="B10:AN10"/>
@@ -5253,12 +5306,6 @@
     <mergeCell ref="B14:AN14"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B28:T28"/>
-    <mergeCell ref="B6:AN6"/>
-    <mergeCell ref="B7:AN7"/>
-    <mergeCell ref="B8:AN8"/>
-    <mergeCell ref="B34:T34"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B35:T35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5278,27 +5325,27 @@
       <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="9" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="13" max="13" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1"/>
     <col min="18" max="26" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
         <v>1950</v>
       </c>
@@ -5306,7 +5353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -5314,7 +5361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5361,7 +5408,7 @@
         <v>18446</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5440,7 @@
         <v>18442</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5410,7 +5457,7 @@
         <v>18438</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -5461,7 +5508,7 @@
         <v>18446</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
         <f>C7</f>
         <v>Spain</v>
@@ -5498,7 +5545,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
         <f>C7</f>
         <v>Spain</v>
@@ -5517,7 +5564,7 @@
         <v>18439</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -5565,14 +5612,14 @@
       <c r="P11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>146</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="str">
         <f>C11</f>
         <v>Sweden</v>
@@ -5604,11 +5651,11 @@
       <c r="K12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="str">
         <f>C11</f>
         <v>Sweden</v>
@@ -5623,11 +5670,11 @@
       <c r="F13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -5647,8 +5694,8 @@
         <v>18446</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="9">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>1974</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5679,7 +5726,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>125</v>
       </c>
@@ -5714,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="str">
         <f>R18</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -5794,7 +5841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="str">
         <f>C19</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -5857,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="str">
         <f>C19</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -5903,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="R22" s="1" t="s">
@@ -5934,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>126</v>
       </c>
@@ -6018,7 +6065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1" t="str">
@@ -6083,7 +6130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="str">
@@ -6131,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="R26" s="1" t="s">
@@ -6162,8 +6209,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="9">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>1978</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -6194,7 +6241,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
@@ -6229,7 +6276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="str">
         <f>R28</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -6309,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="str">
         <f>C29</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -6372,7 +6419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="str">
         <f>C29</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -6418,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="R32" s="1" t="s">
@@ -6449,7 +6496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
@@ -6533,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="str">
@@ -6598,7 +6645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="str">
@@ -6646,12 +6693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="9">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>1982</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -6682,7 +6729,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
@@ -6717,7 +6764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="str">
         <f>R38</f>
         <v xml:space="preserve"> Poland</v>
@@ -6780,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="str">
         <f>C39</f>
         <v xml:space="preserve"> Poland</v>
@@ -6827,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>126</v>
       </c>
@@ -6860,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="str">
@@ -6925,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1" t="str">
@@ -6973,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -7005,7 +7052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="str">
         <f>R44</f>
         <v xml:space="preserve"> Italy</v>
@@ -7068,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="str">
         <f>C45</f>
         <v xml:space="preserve"> Italy</v>
@@ -7114,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>128</v>
       </c>
@@ -7147,7 +7194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="str">
@@ -7212,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="str">
@@ -7279,29 +7326,29 @@
       <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="13" max="13" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="26" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="26" width="10.875" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
         <v>1954</v>
       </c>
@@ -7309,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -7317,7 +7364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7366,7 +7413,7 @@
         <v>19894</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="str">
         <f>C3</f>
         <v>Brazil</v>
@@ -7385,7 +7432,7 @@
         <v>19891</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -7436,7 +7483,7 @@
         <v>19895</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="str">
         <f>C6</f>
         <v>Hungary</v>
@@ -7466,14 +7513,14 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>19898</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -7523,7 +7570,7 @@
         <v>19891</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="str">
         <f>C9</f>
         <v>Uruguay</v>
@@ -7542,7 +7589,7 @@
         <v>19894</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -7592,7 +7639,7 @@
         <v>19895</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7624,7 +7671,7 @@
         <v>19898</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1958</v>
       </c>
@@ -7632,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -7640,7 +7687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
@@ -7689,7 +7736,7 @@
         <v>21351</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="str">
         <f>C17</f>
         <v>West Germany</v>
@@ -7725,7 +7772,7 @@
         <v>21347</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="str">
         <f>C17</f>
         <v>West Germany</v>
@@ -7744,7 +7791,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -7796,7 +7843,7 @@
         <v>21347</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="str">
         <f>C21</f>
         <v>France</v>
@@ -7832,7 +7879,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="str">
         <f>C21</f>
         <v>France</v>
@@ -7851,7 +7898,7 @@
         <v>21351</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -7903,7 +7950,7 @@
         <v>21351</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="str">
         <f>C25</f>
         <v>Sweden</v>
@@ -7939,7 +7986,7 @@
         <v>21347</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="str">
         <f>C25</f>
         <v>Sweden</v>
@@ -7958,7 +8005,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -8010,7 +8057,7 @@
         <v>21351</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="str">
         <f>C29</f>
         <v>Brazil</v>
@@ -8046,7 +8093,7 @@
         <v>21347</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="str">
         <f>C29</f>
         <v>Brazil</v>
@@ -8065,7 +8112,7 @@
         <v>21344</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>1962</v>
       </c>
@@ -8073,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -8081,7 +8128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
@@ -8130,7 +8177,7 @@
         <v>22796</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="str">
         <f>C35</f>
         <v>Soviet Union</v>
@@ -8166,7 +8213,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="str">
         <f>C35</f>
         <v>Soviet Union</v>
@@ -8185,7 +8232,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -8237,7 +8284,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="str">
         <f>C39</f>
         <v>West Germany</v>
@@ -8273,7 +8320,7 @@
         <v>22796</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="str">
         <f>C39</f>
         <v>West Germany</v>
@@ -8292,7 +8339,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
@@ -8344,7 +8391,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="str">
         <f>C43</f>
         <v>Brazil</v>
@@ -8380,7 +8427,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="str">
         <f>C43</f>
         <v>Brazil</v>
@@ -8399,7 +8446,7 @@
         <v>22803</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -8451,7 +8498,7 @@
         <v>22796</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="str">
         <f>C47</f>
         <v>Hungary</v>
@@ -8487,7 +8534,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="str">
         <f>C47</f>
         <v>Hungary</v>
@@ -8506,7 +8553,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>1966</v>
       </c>
@@ -8514,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -8549,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="str">
         <f>R52</f>
         <v xml:space="preserve"> England</v>
@@ -8629,7 +8676,7 @@
         <v>24301</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="str">
         <f>C53</f>
         <v xml:space="preserve"> England</v>
@@ -8693,7 +8740,7 @@
       </c>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="str">
         <f>C53</f>
         <v xml:space="preserve"> England</v>
@@ -8739,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R56" s="1" t="s">
         <v>89</v>
       </c>
@@ -8768,7 +8815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -8851,7 +8898,7 @@
         <v>24303</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="str">
         <f>C57</f>
         <v xml:space="preserve"> West Germany</v>
@@ -8914,7 +8961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="str">
         <f>C57</f>
         <v xml:space="preserve"> West Germany</v>
@@ -8960,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R60" s="1" t="s">
         <v>93</v>
       </c>
@@ -8989,7 +9036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
@@ -9072,7 +9119,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="str">
         <f>C61</f>
         <v xml:space="preserve"> Portugal</v>
@@ -9135,7 +9182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="str">
         <f>C61</f>
         <v xml:space="preserve"> Portugal</v>
@@ -9181,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R64" s="1" t="s">
         <v>97</v>
       </c>
@@ -9210,7 +9257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -9293,7 +9340,7 @@
         <v>24301</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="str">
         <f>C65</f>
         <v xml:space="preserve"> Soviet Union</v>
@@ -9356,7 +9403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="str">
         <f>C65</f>
         <v xml:space="preserve"> Soviet Union</v>
@@ -9402,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>1970</v>
       </c>
@@ -9410,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -9445,7 +9492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="str">
         <f>R70</f>
         <v xml:space="preserve"> Soviet Union</v>
@@ -9525,7 +9572,7 @@
         <v>25722</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="str">
         <f>C71</f>
         <v xml:space="preserve"> Soviet Union</v>
@@ -9588,7 +9635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="str">
         <f>C71</f>
         <v xml:space="preserve"> Soviet Union</v>
@@ -9634,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R74" s="1" t="s">
         <v>99</v>
       </c>
@@ -9663,7 +9710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -9746,7 +9793,7 @@
         <v>25726</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="str">
         <f>C75</f>
         <v xml:space="preserve"> Italy</v>
@@ -9809,7 +9856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="str">
         <f>C75</f>
         <v xml:space="preserve"> Italy</v>
@@ -9855,7 +9902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R78" s="1" t="s">
         <v>95</v>
       </c>
@@ -9884,7 +9931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
@@ -9967,7 +10014,7 @@
         <v>25725</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="str">
         <f>C79</f>
         <v xml:space="preserve"> Brazil</v>
@@ -10030,7 +10077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="str">
         <f>C79</f>
         <v xml:space="preserve"> Brazil</v>
@@ -10076,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R82" s="1" t="s">
         <v>89</v>
       </c>
@@ -10105,7 +10152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
@@ -10188,7 +10235,7 @@
         <v>25730</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="str">
         <f>C83</f>
         <v xml:space="preserve"> West Germany</v>
@@ -10251,7 +10298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="str">
         <f>C83</f>
         <v xml:space="preserve"> West Germany</v>
@@ -10297,7 +10344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>1974</v>
       </c>
@@ -10305,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
@@ -10340,7 +10387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="str">
         <f>R88</f>
         <v xml:space="preserve"> East Germany</v>
@@ -10420,7 +10467,7 @@
         <v>27202</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="str">
         <f>C89</f>
         <v xml:space="preserve"> East Germany</v>
@@ -10483,7 +10530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="str">
         <f>C89</f>
         <v xml:space="preserve"> East Germany</v>
@@ -10529,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R92" s="1" t="s">
         <v>116</v>
       </c>
@@ -10558,7 +10605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
@@ -10641,7 +10688,7 @@
         <v>27194</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="str">
         <f>C93</f>
         <v xml:space="preserve"> Yugoslavia</v>
@@ -10704,7 +10751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="str">
         <f>C93</f>
         <v xml:space="preserve"> Yugoslavia</v>
@@ -10750,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R96" s="1" t="s">
         <v>120</v>
       </c>
@@ -10779,7 +10826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>72</v>
       </c>
@@ -10862,7 +10909,7 @@
         <v>27199</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="str">
         <f>C97</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -10925,7 +10972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="str">
         <f>C97</f>
         <v xml:space="preserve"> Netherlands</v>
@@ -10971,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R100" s="1" t="s">
         <v>122</v>
       </c>
@@ -11000,7 +11047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>76</v>
       </c>
@@ -11083,7 +11130,7 @@
         <v>27195</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="str">
         <f>C101</f>
         <v xml:space="preserve"> Poland</v>
@@ -11146,7 +11193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="str">
         <f>C101</f>
         <v xml:space="preserve"> Poland</v>
@@ -11192,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>1978</v>
       </c>
@@ -11200,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>69</v>
       </c>
@@ -11235,7 +11282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="str">
         <f>R106</f>
         <v xml:space="preserve"> Italy</v>
@@ -11315,7 +11362,7 @@
         <v>28651</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="str">
         <f>C107</f>
         <v xml:space="preserve"> Italy</v>
@@ -11378,7 +11425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="str">
         <f>C107</f>
         <v xml:space="preserve"> Italy</v>
@@ -11424,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R110" s="1" t="s">
         <v>122</v>
       </c>
@@ -11453,7 +11500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>71</v>
       </c>
@@ -11536,7 +11583,7 @@
         <v>28643</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="str">
         <f>C111</f>
         <v xml:space="preserve"> Poland</v>
@@ -11599,7 +11646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="str">
         <f>C111</f>
         <v xml:space="preserve"> Poland</v>
@@ -11645,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R114" s="1" t="s">
         <v>134</v>
       </c>
@@ -11674,7 +11721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>72</v>
       </c>
@@ -11757,7 +11804,7 @@
         <v>28652</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="str">
         <f>C115</f>
         <v xml:space="preserve"> Austria</v>
@@ -11820,7 +11867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="str">
         <f>C115</f>
         <v xml:space="preserve"> Austria</v>
@@ -11866,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R118" s="1" t="s">
         <v>111</v>
       </c>
@@ -11895,7 +11942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>76</v>
       </c>
@@ -11978,7 +12025,7 @@
         <v>28648</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="str">
         <f>C119</f>
         <v xml:space="preserve"> Peru</v>
@@ -12041,7 +12088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="str">
         <f>C119</f>
         <v xml:space="preserve"> Peru</v>
@@ -12087,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>1982</v>
       </c>
@@ -12095,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>69</v>
       </c>
@@ -12130,7 +12177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="str">
         <f>R124</f>
         <v xml:space="preserve"> Poland</v>
@@ -12210,7 +12257,7 @@
         <v>30117</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="str">
         <f>C125</f>
         <v xml:space="preserve"> Poland</v>
@@ -12273,7 +12320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="str">
         <f>C125</f>
         <v xml:space="preserve"> Poland</v>
@@ -12319,7 +12366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R128" s="1" t="s">
         <v>89</v>
       </c>
@@ -12348,7 +12395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>71</v>
       </c>
@@ -12431,7 +12478,7 @@
         <v>30126</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="str">
         <f>C129</f>
         <v xml:space="preserve"> West Germany</v>
@@ -12494,7 +12541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="str">
         <f>C129</f>
         <v xml:space="preserve"> West Germany</v>
@@ -12540,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R132" s="1" t="s">
         <v>101</v>
       </c>
@@ -12569,7 +12616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>72</v>
       </c>
@@ -12652,7 +12699,7 @@
         <v>30117</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="str">
         <f>C133</f>
         <v xml:space="preserve"> Belgium</v>
@@ -12715,7 +12762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="str">
         <f>C133</f>
         <v xml:space="preserve"> Belgium</v>
@@ -12761,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R136" s="1" t="s">
         <v>84</v>
       </c>
@@ -12790,7 +12837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>76</v>
       </c>
@@ -12873,7 +12920,7 @@
         <v>30119</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="str">
         <f>C137</f>
         <v xml:space="preserve"> England</v>
@@ -12936,7 +12983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="str">
         <f>C137</f>
         <v xml:space="preserve"> England</v>
@@ -12982,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R140" s="1" t="s">
         <v>142</v>
       </c>
@@ -13011,7 +13058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -13094,7 +13141,7 @@
         <v>30126</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C142" s="1" t="str">
         <f>C141</f>
         <v xml:space="preserve"> Northern Ireland</v>
@@ -13157,7 +13204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C143" s="1" t="str">
         <f>C141</f>
         <v xml:space="preserve"> Northern Ireland</v>
@@ -13203,7 +13250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="R144" s="1" t="s">
         <v>95</v>
       </c>
@@ -13232,7 +13279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
@@ -13315,7 +13362,7 @@
         <v>30117</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="str">
         <f>C145</f>
         <v xml:space="preserve"> Brazil</v>
@@ -13378,7 +13425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="str">
         <f>C145</f>
         <v xml:space="preserve"> Brazil</v>
@@ -13434,4 +13481,2687 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>18460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>19909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>21365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>24318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>27217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>28666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>31592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>33062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>34532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>35988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>37437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>38907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>40370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>21364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>22813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>24316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>25739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>28665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>30142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>31591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>33061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>34531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>35987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>37436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>38906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>40369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>30140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>31588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>33058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>34528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>35984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>37433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>38902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>40366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4">
+        <v>30140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>31588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>33057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>34528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>35983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>37432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>38903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>40365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>31585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>33055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="4">
+        <v>34524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>35979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>37428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>38898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>31584</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>33054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>34524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4">
+        <v>35979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>37428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>38899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>40361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="4">
+        <v>31585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>33055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4">
+        <v>34525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>35980</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>37429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4">
+        <v>38898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>40362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>31584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>33054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>34525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>35980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>37429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>38899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4">
+        <v>40361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>31579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>33048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>34519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>35974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>37424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>38894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>40358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>31580</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>33048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>35973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>37422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>38895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>40357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="4">
+        <v>31578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>33050</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>34518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>35976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>37425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>38892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
+        <v>40356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>31580</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>33049</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>35975</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>37425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
+        <v>38893</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="5">
+        <v>40355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>31581</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="4">
+        <v>33047</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>34519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>35973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
+        <v>37422</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>38894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>3</v>
+      </c>
+      <c r="F112" s="5">
+        <v>40358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>31578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4">
+        <v>33050</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>34517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5">
+        <v>35974</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>37424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>38895</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
+        <v>40357</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
+        <v>31581</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" s="1">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>33047</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2</v>
+      </c>
+      <c r="F122" s="5">
+        <v>34518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="5">
+        <v>35975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>153</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5">
+        <v>37423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5">
+        <v>38892</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5">
+        <v>40356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>31579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="4">
+        <v>33049</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="5">
+        <v>34517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="5">
+        <v>35976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="5">
+        <v>37423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="5">
+        <v>38893</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5">
+        <v>40355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/FIFA outcomes.xlsx
+++ b/data/FIFA outcomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14415" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="14415" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="159">
   <si>
     <t>Qualifiers</t>
   </si>
@@ -555,6 +555,9 @@
   <si>
     <t>Loser Score</t>
   </si>
+  <si>
+    <t xml:space="preserve">Croatia </t>
+  </si>
 </sst>
 </file>
 
@@ -892,9 +895,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -903,6 +903,9 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1464,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
@@ -1646,1344 +1649,1344 @@
       <c r="A6" s="1">
         <v>1950</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1954</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1958</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1962</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1966</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1970</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1974</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1978</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1982</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>1986</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="15" t="str">
         <f t="shared" ref="B15:B21" si="3">B81</f>
         <v>Argentine</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="C15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
         <v>31579</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="15" t="str">
         <f t="shared" ref="G15:G21" si="4">C81</f>
         <v>West Germany</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
         <v>31580</v>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="15" t="str">
         <f t="shared" ref="L15:L21" si="5">C59</f>
         <v>Belgium</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>4</v>
       </c>
-      <c r="O15" s="16">
-        <v>3</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="O15" s="15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="16">
         <v>31578</v>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="15" t="str">
         <f t="shared" ref="Q15:Q21" si="6">H59</f>
         <v>France</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="16">
-        <v>2</v>
-      </c>
-      <c r="T15" s="16">
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
+      <c r="S15" s="15">
+        <v>2</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
         <v>31580</v>
       </c>
-      <c r="V15" s="16" t="str">
+      <c r="V15" s="15" t="str">
         <f t="shared" ref="V15:V21" si="7">C37</f>
         <v>England</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="16">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="17">
+      <c r="X15" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
         <v>31581</v>
       </c>
-      <c r="AA15" s="16" t="str">
+      <c r="AA15" s="15" t="str">
         <f t="shared" ref="AA15:AA21" si="8">H37</f>
         <v>Mexico</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AB15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC15" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="17">
+      <c r="AC15" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
         <v>31578</v>
       </c>
-      <c r="AF15" s="16" t="str">
+      <c r="AF15" s="15" t="str">
         <f t="shared" ref="AF15:AF21" si="9">M37</f>
         <v>Spain</v>
       </c>
-      <c r="AG15" s="16" t="s">
+      <c r="AG15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="16">
+      <c r="AH15" s="15">
         <v>5</v>
       </c>
-      <c r="AI15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="17">
+      <c r="AI15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="16">
         <v>31581</v>
       </c>
-      <c r="AK15" s="16" t="str">
+      <c r="AK15" s="15" t="str">
         <f t="shared" ref="AK15:AK21" si="10">R37</f>
         <v>Brazil</v>
       </c>
-      <c r="AL15" s="16" t="s">
+      <c r="AL15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AM15" s="16">
+      <c r="AM15" s="15">
         <v>4</v>
       </c>
-      <c r="AN15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="17">
+      <c r="AN15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="16">
         <v>31579</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>1990</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="15" t="str">
         <f t="shared" si="3"/>
         <v>West Germany</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
         <v>33048</v>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="15" t="str">
         <f t="shared" si="4"/>
         <v>Argentine</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
         <v>33048</v>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="15" t="str">
         <f t="shared" si="5"/>
         <v>England</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
         <v>33050</v>
       </c>
-      <c r="Q16" s="16" t="str">
+      <c r="Q16" s="15" t="str">
         <f t="shared" si="6"/>
         <v>Italy</v>
       </c>
-      <c r="R16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="16">
-        <v>2</v>
-      </c>
-      <c r="T16" s="16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
+      <c r="R16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="15">
+        <v>2</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
         <v>33049</v>
       </c>
-      <c r="V16" s="16" t="str">
+      <c r="V16" s="15" t="str">
         <f t="shared" si="7"/>
         <v>Czechoslovakia</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="15">
         <v>4</v>
       </c>
-      <c r="Y16" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="17">
+      <c r="Y16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="16">
         <v>33047</v>
       </c>
-      <c r="AA16" s="16" t="str">
+      <c r="AA16" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Yugoslavia</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AB16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="17">
+      <c r="AC16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="16">
         <v>33050</v>
       </c>
-      <c r="AF16" s="16" t="str">
+      <c r="AF16" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Cameroon</v>
       </c>
-      <c r="AG16" s="16" t="s">
+      <c r="AG16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AH16" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="17">
+      <c r="AH16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="16">
         <v>33047</v>
       </c>
-      <c r="AK16" s="16" t="str">
+      <c r="AK16" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Republic of Ireland</v>
       </c>
-      <c r="AL16" s="16" t="s">
+      <c r="AL16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AM16" s="16">
+      <c r="AM16" s="15">
         <v>5</v>
       </c>
-      <c r="AN16" s="16">
+      <c r="AN16" s="15">
         <v>4</v>
       </c>
-      <c r="AO16" s="17">
+      <c r="AO16" s="16">
         <v>33049</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>1994</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Brazil</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
         <v>34519</v>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="15" t="str">
         <f t="shared" si="4"/>
         <v>Italy</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="16">
-        <v>2</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="I17" s="15">
+        <v>2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16">
         <v>34520</v>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="15" t="str">
         <f t="shared" si="5"/>
         <v>Sweden</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="16">
-        <v>3</v>
-      </c>
-      <c r="O17" s="16">
-        <v>1</v>
-      </c>
-      <c r="P17" s="18">
+      <c r="N17" s="15">
+        <v>3</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
         <v>34518</v>
       </c>
-      <c r="Q17" s="16" t="str">
+      <c r="Q17" s="15" t="str">
         <f t="shared" si="6"/>
         <v>Bulgaria</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="R17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="16">
-        <v>3</v>
-      </c>
-      <c r="T17" s="16">
-        <v>1</v>
-      </c>
-      <c r="U17" s="18">
+      <c r="S17" s="15">
+        <v>3</v>
+      </c>
+      <c r="T17" s="15">
+        <v>1</v>
+      </c>
+      <c r="U17" s="17">
         <v>34520</v>
       </c>
-      <c r="V17" s="16" t="str">
+      <c r="V17" s="15" t="str">
         <f t="shared" si="7"/>
         <v>Netherlands</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="18">
+      <c r="X17" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
         <v>34519</v>
       </c>
-      <c r="AA17" s="16" t="str">
+      <c r="AA17" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Spain</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AB17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="18">
+      <c r="AC17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
         <v>34517</v>
       </c>
-      <c r="AF17" s="16" t="str">
+      <c r="AF17" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Romania</v>
       </c>
-      <c r="AG17" s="16" t="s">
+      <c r="AG17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AH17" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="16">
-        <v>2</v>
-      </c>
-      <c r="AJ17" s="18">
+      <c r="AH17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="17">
         <v>34518</v>
       </c>
-      <c r="AK17" s="16" t="str">
+      <c r="AK17" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Germany</v>
       </c>
-      <c r="AL17" s="16" t="s">
+      <c r="AL17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AM17" s="16">
-        <v>3</v>
-      </c>
-      <c r="AN17" s="16">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="18">
+      <c r="AM17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="17">
         <v>34517</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>1998</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="15" t="str">
         <f t="shared" si="3"/>
         <v>France</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
         <v>35974</v>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="15" t="str">
         <f t="shared" si="4"/>
         <v>Brazil</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>4</v>
       </c>
-      <c r="J18" s="16">
-        <v>1</v>
-      </c>
-      <c r="K18" s="18">
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
         <v>35973</v>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="15" t="str">
         <f t="shared" si="5"/>
         <v>Croatia</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="16">
-        <v>1</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
         <v>35976</v>
       </c>
-      <c r="Q18" s="16" t="str">
+      <c r="Q18" s="15" t="str">
         <f t="shared" si="6"/>
         <v>Netherlands</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="16">
-        <v>2</v>
-      </c>
-      <c r="T18" s="16">
-        <v>1</v>
-      </c>
-      <c r="U18" s="18">
+      <c r="S18" s="15">
+        <v>2</v>
+      </c>
+      <c r="T18" s="15">
+        <v>1</v>
+      </c>
+      <c r="U18" s="17">
         <v>35975</v>
       </c>
-      <c r="V18" s="16" t="str">
+      <c r="V18" s="15" t="str">
         <f t="shared" si="7"/>
         <v>Italy</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X18" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18">
+      <c r="X18" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
         <v>35973</v>
       </c>
-      <c r="AA18" s="16" t="str">
+      <c r="AA18" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Denmark</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AB18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AC18" s="15">
         <v>4</v>
       </c>
-      <c r="AD18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="18">
+      <c r="AD18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="17">
         <v>35974</v>
       </c>
-      <c r="AF18" s="16" t="str">
+      <c r="AF18" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Germany</v>
       </c>
-      <c r="AG18" s="16" t="s">
+      <c r="AG18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH18" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="18">
+      <c r="AH18" s="15">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="17">
         <v>35975</v>
       </c>
-      <c r="AK18" s="16" t="str">
+      <c r="AK18" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Argentine</v>
       </c>
-      <c r="AL18" s="16" t="s">
+      <c r="AL18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AM18" s="16">
+      <c r="AM18" s="15">
         <v>4</v>
       </c>
-      <c r="AN18" s="16">
-        <v>3</v>
-      </c>
-      <c r="AO18" s="18">
+      <c r="AN18" s="15">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="17">
         <v>35976</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>2002</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Brazil</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
         <v>37424</v>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="15" t="str">
         <f t="shared" si="4"/>
         <v>Germany</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="16">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="I19" s="15">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
         <v>37422</v>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="15" t="str">
         <f t="shared" si="5"/>
         <v>Turkey</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
         <v>37425</v>
       </c>
-      <c r="Q19" s="16" t="str">
+      <c r="Q19" s="15" t="str">
         <f t="shared" si="6"/>
         <v>South Korea</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="16">
-        <v>2</v>
-      </c>
-      <c r="T19" s="16">
-        <v>1</v>
-      </c>
-      <c r="U19" s="18">
+      <c r="S19" s="15">
+        <v>2</v>
+      </c>
+      <c r="T19" s="15">
+        <v>1</v>
+      </c>
+      <c r="U19" s="17">
         <v>37425</v>
       </c>
-      <c r="V19" s="16" t="str">
+      <c r="V19" s="15" t="str">
         <f t="shared" si="7"/>
         <v>England</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="X19" s="16">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18">
+      <c r="X19" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
         <v>37422</v>
       </c>
-      <c r="AA19" s="16" t="str">
+      <c r="AA19" s="15" t="str">
         <f t="shared" si="8"/>
         <v>United States</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AC19" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="18">
+      <c r="AC19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
         <v>37424</v>
       </c>
-      <c r="AF19" s="16" t="str">
+      <c r="AF19" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Senegal</v>
       </c>
-      <c r="AG19" s="16" t="s">
+      <c r="AG19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="18">
+      <c r="AH19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="17">
         <v>37423</v>
       </c>
-      <c r="AK19" s="16" t="str">
+      <c r="AK19" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Spain</v>
       </c>
-      <c r="AL19" s="16" t="s">
+      <c r="AL19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AM19" s="16">
-        <v>3</v>
-      </c>
-      <c r="AN19" s="16">
-        <v>2</v>
-      </c>
-      <c r="AO19" s="18">
+      <c r="AM19" s="15">
+        <v>3</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="17">
         <v>37423</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>2006</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Italy</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
         <v>38894</v>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="15" t="str">
         <f t="shared" si="4"/>
         <v>France</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="16">
-        <v>3</v>
-      </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="I20" s="15">
+        <v>3</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
         <v>38895</v>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="15" t="str">
         <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="16">
-        <v>2</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="N20" s="15">
+        <v>2</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
         <v>38892</v>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="15" t="str">
         <f t="shared" si="6"/>
         <v>Portugal</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="16">
-        <v>1</v>
-      </c>
-      <c r="T20" s="16">
-        <v>0</v>
-      </c>
-      <c r="U20" s="18">
+      <c r="S20" s="15">
+        <v>1</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
         <v>38893</v>
       </c>
-      <c r="V20" s="16" t="str">
+      <c r="V20" s="15" t="str">
         <f t="shared" si="7"/>
         <v>Ukraine</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="16">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18">
+      <c r="X20" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
         <v>38894</v>
       </c>
-      <c r="AA20" s="16" t="str">
+      <c r="AA20" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Brazil</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AB20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AC20" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="18">
+      <c r="AC20" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
         <v>38895</v>
       </c>
-      <c r="AF20" s="16" t="str">
+      <c r="AF20" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Argentine</v>
       </c>
-      <c r="AG20" s="16" t="s">
+      <c r="AG20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH20" s="16">
-        <v>2</v>
-      </c>
-      <c r="AI20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="18">
+      <c r="AH20" s="15">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="17">
         <v>38892</v>
       </c>
-      <c r="AK20" s="16" t="str">
+      <c r="AK20" s="15" t="str">
         <f t="shared" si="10"/>
         <v>England</v>
       </c>
-      <c r="AL20" s="16" t="s">
+      <c r="AL20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="18">
+      <c r="AM20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="17">
         <v>38893</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>2010</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Spain</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
         <v>40358</v>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="15" t="str">
         <f t="shared" si="4"/>
         <v>Netherlands</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="16">
-        <v>2</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="I21" s="15">
+        <v>2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
         <v>40357</v>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="15" t="str">
         <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>4</v>
       </c>
-      <c r="O21" s="16">
-        <v>1</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="O21" s="15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
         <v>40356</v>
       </c>
-      <c r="Q21" s="16" t="str">
+      <c r="Q21" s="15" t="str">
         <f t="shared" si="6"/>
         <v>Uruguay</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="R21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="17">
         <v>40355</v>
       </c>
-      <c r="V21" s="16" t="str">
+      <c r="V21" s="15" t="str">
         <f t="shared" si="7"/>
         <v>Paraguay</v>
       </c>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="15">
         <v>5</v>
       </c>
-      <c r="Y21" s="16">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="18">
+      <c r="Y21" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="17">
         <v>40358</v>
       </c>
-      <c r="AA21" s="16" t="str">
+      <c r="AA21" s="15" t="str">
         <f t="shared" si="8"/>
         <v>Brazil</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AB21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC21" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="18">
+      <c r="AC21" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17">
         <v>40357</v>
       </c>
-      <c r="AF21" s="16" t="str">
+      <c r="AF21" s="15" t="str">
         <f t="shared" si="9"/>
         <v>Argentine</v>
       </c>
-      <c r="AG21" s="16" t="s">
+      <c r="AG21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" s="16">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="18">
+      <c r="AH21" s="15">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="17">
         <v>40356</v>
       </c>
-      <c r="AK21" s="16" t="str">
+      <c r="AK21" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Ghana</v>
       </c>
-      <c r="AL21" s="16" t="s">
+      <c r="AL21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AM21" s="16">
-        <v>2</v>
-      </c>
-      <c r="AN21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="18">
+      <c r="AM21" s="15">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="17">
         <v>40355</v>
       </c>
     </row>
@@ -3096,27 +3099,27 @@
       <c r="A28" s="1">
         <v>1950</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -3467,565 +3470,565 @@
       <c r="A34" s="1">
         <v>1974</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1978</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1982</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
       <c r="U36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AE36" s="5"/>
       <c r="AJ36" s="4"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>1986</v>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Argentine</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="16">
-        <v>2</v>
-      </c>
-      <c r="E37" s="16">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="D37" s="15">
+        <v>2</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16">
         <v>31585</v>
       </c>
-      <c r="G37" s="16" t="str">
+      <c r="G37" s="15" t="str">
         <f t="shared" ref="G37:G43" si="13">C81</f>
         <v>West Germany</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="15">
         <v>4</v>
       </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="J37" s="15">
+        <v>1</v>
+      </c>
+      <c r="K37" s="16">
         <v>31584</v>
       </c>
-      <c r="L37" s="16" t="str">
+      <c r="L37" s="15" t="str">
         <f t="shared" ref="L37:L43" si="14">C59</f>
         <v>Belgium</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="15">
         <v>5</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="15">
         <v>4</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="16">
         <v>31585</v>
       </c>
-      <c r="Q37" s="16" t="str">
+      <c r="Q37" s="15" t="str">
         <f t="shared" si="12"/>
         <v>France</v>
       </c>
-      <c r="R37" s="16" t="s">
+      <c r="R37" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="15">
         <v>4</v>
       </c>
-      <c r="T37" s="16">
-        <v>3</v>
-      </c>
-      <c r="U37" s="17">
+      <c r="T37" s="15">
+        <v>3</v>
+      </c>
+      <c r="U37" s="16">
         <v>31584</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>1990</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="15" t="str">
         <f t="shared" si="11"/>
         <v>West Germany</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="16">
-        <v>1</v>
-      </c>
-      <c r="E38" s="16">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
         <v>33055</v>
       </c>
-      <c r="G38" s="16" t="str">
+      <c r="G38" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Argentine</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="16">
-        <v>3</v>
-      </c>
-      <c r="J38" s="16">
-        <v>2</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="I38" s="15">
+        <v>3</v>
+      </c>
+      <c r="J38" s="15">
+        <v>2</v>
+      </c>
+      <c r="K38" s="16">
         <v>33054</v>
       </c>
-      <c r="L38" s="16" t="str">
+      <c r="L38" s="15" t="str">
         <f t="shared" si="14"/>
         <v>England</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="16">
-        <v>3</v>
-      </c>
-      <c r="O38" s="16">
-        <v>2</v>
-      </c>
-      <c r="P38" s="17">
+      <c r="N38" s="15">
+        <v>3</v>
+      </c>
+      <c r="O38" s="15">
+        <v>2</v>
+      </c>
+      <c r="P38" s="16">
         <v>33055</v>
       </c>
-      <c r="Q38" s="16" t="str">
+      <c r="Q38" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Italy</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="16">
-        <v>1</v>
-      </c>
-      <c r="T38" s="16">
-        <v>0</v>
-      </c>
-      <c r="U38" s="17">
+      <c r="S38" s="15">
+        <v>1</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16">
         <v>33054</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>1994</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Brazil</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="16">
-        <v>3</v>
-      </c>
-      <c r="E39" s="16">
-        <v>2</v>
-      </c>
-      <c r="F39" s="17">
+      <c r="D39" s="15">
+        <v>3</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="16">
         <v>34524</v>
       </c>
-      <c r="G39" s="16" t="str">
+      <c r="G39" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Italy</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="16">
-        <v>2</v>
-      </c>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="K39" s="17">
+      <c r="I39" s="15">
+        <v>2</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="16">
         <v>34524</v>
       </c>
-      <c r="L39" s="16" t="str">
+      <c r="L39" s="15" t="str">
         <f t="shared" si="14"/>
         <v>Sweden</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="15">
         <v>5</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="15">
         <v>4</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="16">
         <v>34525</v>
       </c>
-      <c r="Q39" s="16" t="str">
+      <c r="Q39" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Bulgaria</v>
       </c>
-      <c r="R39" s="16" t="s">
+      <c r="R39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="16">
-        <v>2</v>
-      </c>
-      <c r="T39" s="16">
-        <v>1</v>
-      </c>
-      <c r="U39" s="17">
+      <c r="S39" s="15">
+        <v>2</v>
+      </c>
+      <c r="T39" s="15">
+        <v>1</v>
+      </c>
+      <c r="U39" s="16">
         <v>34525</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>1998</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B40" s="15" t="str">
         <f t="shared" si="11"/>
         <v>France</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>4</v>
       </c>
-      <c r="E40" s="16">
-        <v>3</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="E40" s="15">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16">
         <f>I40</f>
         <v>3</v>
       </c>
-      <c r="G40" s="16" t="str">
+      <c r="G40" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Brazil</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="16">
-        <v>3</v>
-      </c>
-      <c r="J40" s="16">
-        <v>2</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="I40" s="15">
+        <v>3</v>
+      </c>
+      <c r="J40" s="15">
+        <v>2</v>
+      </c>
+      <c r="K40" s="16">
         <v>35979</v>
       </c>
-      <c r="L40" s="16" t="str">
+      <c r="L40" s="15" t="str">
         <f t="shared" si="14"/>
         <v>Croatia</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="16">
-        <v>3</v>
-      </c>
-      <c r="O40" s="16">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17">
+      <c r="N40" s="15">
+        <v>3</v>
+      </c>
+      <c r="O40" s="15">
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
         <v>35980</v>
       </c>
-      <c r="Q40" s="16" t="str">
+      <c r="Q40" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Netherlands</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="16">
-        <v>2</v>
-      </c>
-      <c r="T40" s="16">
-        <v>1</v>
-      </c>
-      <c r="U40" s="17">
+      <c r="S40" s="15">
+        <v>2</v>
+      </c>
+      <c r="T40" s="15">
+        <v>1</v>
+      </c>
+      <c r="U40" s="16">
         <v>35980</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>2002</v>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Brazil</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="16">
-        <v>2</v>
-      </c>
-      <c r="E41" s="16">
-        <v>1</v>
-      </c>
-      <c r="F41" s="17">
+      <c r="D41" s="15">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
         <v>37428</v>
       </c>
-      <c r="G41" s="16" t="str">
+      <c r="G41" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Germany</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="16">
-        <v>1</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17">
+      <c r="I41" s="15">
+        <v>1</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
         <v>37428</v>
       </c>
-      <c r="L41" s="16" t="str">
+      <c r="L41" s="15" t="str">
         <f t="shared" si="14"/>
         <v>Turkey</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N41" s="16">
-        <v>1</v>
-      </c>
-      <c r="O41" s="16">
-        <v>0</v>
-      </c>
-      <c r="P41" s="17">
+      <c r="N41" s="15">
+        <v>1</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
+      <c r="P41" s="16">
         <v>37429</v>
       </c>
-      <c r="Q41" s="16" t="str">
+      <c r="Q41" s="15" t="str">
         <f t="shared" si="12"/>
         <v>South Korea</v>
       </c>
-      <c r="R41" s="16" t="s">
+      <c r="R41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S41" s="15">
         <v>5</v>
       </c>
-      <c r="T41" s="16">
-        <v>3</v>
-      </c>
-      <c r="U41" s="17">
+      <c r="T41" s="15">
+        <v>3</v>
+      </c>
+      <c r="U41" s="16">
         <v>37429</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>2006</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Italy</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="16">
-        <v>3</v>
-      </c>
-      <c r="E42" s="16">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
+      <c r="D42" s="15">
+        <v>3</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
         <v>38898</v>
       </c>
-      <c r="G42" s="16" t="str">
+      <c r="G42" s="15" t="str">
         <f t="shared" si="13"/>
         <v>France</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="16">
-        <v>1</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="17">
+      <c r="I42" s="15">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
         <v>38899</v>
       </c>
-      <c r="L42" s="16" t="str">
+      <c r="L42" s="15" t="str">
         <f t="shared" si="14"/>
         <v>Germany</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="15">
         <v>4</v>
       </c>
-      <c r="O42" s="16">
-        <v>2</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="O42" s="15">
+        <v>2</v>
+      </c>
+      <c r="P42" s="16">
         <v>38898</v>
       </c>
-      <c r="Q42" s="16" t="str">
+      <c r="Q42" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Portugal</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="16">
-        <v>3</v>
-      </c>
-      <c r="T42" s="16">
-        <v>1</v>
-      </c>
-      <c r="U42" s="17">
+      <c r="S42" s="15">
+        <v>3</v>
+      </c>
+      <c r="T42" s="15">
+        <v>1</v>
+      </c>
+      <c r="U42" s="16">
         <v>38899</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>2010</v>
       </c>
-      <c r="B43" s="16" t="str">
+      <c r="B43" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Spain</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="16">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
         <v>40362</v>
       </c>
-      <c r="G43" s="16" t="str">
+      <c r="G43" s="15" t="str">
         <f t="shared" si="13"/>
         <v>Netherlands</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="16">
-        <v>2</v>
-      </c>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="I43" s="15">
+        <v>2</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="16">
         <v>40361</v>
       </c>
-      <c r="L43" s="16" t="str">
+      <c r="L43" s="15" t="str">
         <f t="shared" si="14"/>
         <v>Germany</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="M43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="15">
         <v>4</v>
       </c>
-      <c r="O43" s="16">
-        <v>0</v>
-      </c>
-      <c r="P43" s="17">
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="16">
         <v>40362</v>
       </c>
-      <c r="Q43" s="16" t="str">
+      <c r="Q43" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Uruguay</v>
       </c>
-      <c r="R43" s="16" t="s">
+      <c r="R43" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S43" s="15">
         <v>4</v>
       </c>
-      <c r="T43" s="16">
-        <v>2</v>
-      </c>
-      <c r="U43" s="17">
+      <c r="T43" s="15">
+        <v>2</v>
+      </c>
+      <c r="U43" s="16">
         <v>40361</v>
       </c>
     </row>
@@ -4115,7 +4118,7 @@
       <c r="E50" s="10">
         <v>2</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>18457</v>
       </c>
       <c r="G50" s="10" t="str">
@@ -4339,329 +4342,329 @@
       <c r="A56" s="10">
         <v>1974</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>1978</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>1982</v>
       </c>
-      <c r="B58" s="16" t="str">
+      <c r="B58" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Italy</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="16">
-        <v>2</v>
-      </c>
-      <c r="E58" s="16">
-        <v>0</v>
-      </c>
-      <c r="F58" s="17">
+      <c r="D58" s="15">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16">
         <v>30140</v>
       </c>
-      <c r="G58" s="16" t="str">
+      <c r="G58" s="15" t="str">
         <f t="shared" si="16"/>
         <v>West Germany</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="15">
         <v>5</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="15">
         <v>4</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="16">
         <v>30140</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>1986</v>
       </c>
-      <c r="B59" s="16" t="str">
+      <c r="B59" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Argentine</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="16">
-        <v>2</v>
-      </c>
-      <c r="E59" s="16">
-        <v>0</v>
-      </c>
-      <c r="F59" s="17">
+      <c r="D59" s="15">
+        <v>2</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16">
         <v>31588</v>
       </c>
-      <c r="G59" s="16" t="str">
+      <c r="G59" s="15" t="str">
         <f t="shared" si="16"/>
         <v>West Germany</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="16">
-        <v>2</v>
-      </c>
-      <c r="J59" s="16">
-        <v>0</v>
-      </c>
-      <c r="K59" s="17">
+      <c r="I59" s="15">
+        <v>2</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="16">
         <v>31588</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>1990</v>
       </c>
-      <c r="B60" s="16" t="str">
+      <c r="B60" s="15" t="str">
         <f t="shared" si="15"/>
         <v>West Germany</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>4</v>
       </c>
-      <c r="E60" s="16">
-        <v>3</v>
-      </c>
-      <c r="F60" s="17">
+      <c r="E60" s="15">
+        <v>3</v>
+      </c>
+      <c r="F60" s="16">
         <v>33058</v>
       </c>
-      <c r="G60" s="16" t="str">
+      <c r="G60" s="15" t="str">
         <f t="shared" si="16"/>
         <v>Argentine</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>4</v>
       </c>
-      <c r="J60" s="16">
-        <v>3</v>
-      </c>
-      <c r="K60" s="17">
+      <c r="J60" s="15">
+        <v>3</v>
+      </c>
+      <c r="K60" s="16">
         <v>33057</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>1994</v>
       </c>
-      <c r="B61" s="16" t="str">
+      <c r="B61" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="16">
-        <v>1</v>
-      </c>
-      <c r="E61" s="16">
-        <v>0</v>
-      </c>
-      <c r="F61" s="17">
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
         <v>34528</v>
       </c>
-      <c r="G61" s="16" t="str">
+      <c r="G61" s="15" t="str">
         <f t="shared" si="16"/>
         <v>Italy</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I61" s="16">
-        <v>2</v>
-      </c>
-      <c r="J61" s="16">
-        <v>1</v>
-      </c>
-      <c r="K61" s="17">
+      <c r="I61" s="15">
+        <v>2</v>
+      </c>
+      <c r="J61" s="15">
+        <v>1</v>
+      </c>
+      <c r="K61" s="16">
         <v>34528</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>1998</v>
       </c>
-      <c r="B62" s="16" t="str">
+      <c r="B62" s="15" t="str">
         <f t="shared" si="15"/>
         <v>France</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="16">
-        <v>2</v>
-      </c>
-      <c r="E62" s="16">
-        <v>1</v>
-      </c>
-      <c r="F62" s="17">
+      <c r="D62" s="15">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="16">
         <v>35984</v>
       </c>
-      <c r="G62" s="16" t="str">
+      <c r="G62" s="15" t="str">
         <f t="shared" si="16"/>
         <v>Brazil</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="15">
         <v>4</v>
       </c>
-      <c r="J62" s="16">
-        <v>2</v>
-      </c>
-      <c r="K62" s="17">
+      <c r="J62" s="15">
+        <v>2</v>
+      </c>
+      <c r="K62" s="16">
         <v>35983</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>2002</v>
       </c>
-      <c r="B63" s="16" t="str">
+      <c r="B63" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Brazil</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="16">
-        <v>1</v>
-      </c>
-      <c r="E63" s="16">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16">
         <v>37433</v>
       </c>
-      <c r="G63" s="16" t="str">
+      <c r="G63" s="15" t="str">
         <f t="shared" si="16"/>
         <v>Germany</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="16">
-        <v>1</v>
-      </c>
-      <c r="J63" s="16">
-        <v>0</v>
-      </c>
-      <c r="K63" s="17">
+      <c r="I63" s="15">
+        <v>1</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0</v>
+      </c>
+      <c r="K63" s="16">
         <v>37432</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>2006</v>
       </c>
-      <c r="B64" s="16" t="str">
+      <c r="B64" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Italy</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="16">
-        <v>2</v>
-      </c>
-      <c r="E64" s="16">
-        <v>0</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="D64" s="15">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16">
         <v>38902</v>
       </c>
-      <c r="G64" s="16" t="str">
+      <c r="G64" s="15" t="str">
         <f t="shared" si="16"/>
         <v>France</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I64" s="16">
-        <v>1</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0</v>
-      </c>
-      <c r="K64" s="17">
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="15">
+        <v>0</v>
+      </c>
+      <c r="K64" s="16">
         <v>38903</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>2010</v>
       </c>
-      <c r="B65" s="16" t="str">
+      <c r="B65" s="15" t="str">
         <f t="shared" si="15"/>
         <v>Spain</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="16">
-        <v>1</v>
-      </c>
-      <c r="E65" s="16">
-        <v>0</v>
-      </c>
-      <c r="F65" s="17">
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16">
         <v>40366</v>
       </c>
-      <c r="G65" s="16" t="str">
+      <c r="G65" s="15" t="str">
         <f t="shared" si="16"/>
         <v>Netherlands</v>
       </c>
-      <c r="H65" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="16">
-        <v>3</v>
-      </c>
-      <c r="J65" s="16">
-        <v>2</v>
-      </c>
-      <c r="K65" s="17">
+      <c r="H65" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="15">
+        <v>3</v>
+      </c>
+      <c r="J65" s="15">
+        <v>2</v>
+      </c>
+      <c r="K65" s="16">
         <v>40365</v>
       </c>
     </row>
@@ -4714,589 +4717,583 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>1950</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="B72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="16">
-        <v>2</v>
-      </c>
-      <c r="E72" s="16">
-        <v>1</v>
-      </c>
-      <c r="F72" s="17">
+      <c r="D72" s="15">
+        <v>2</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="16">
         <v>18460</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="16">
-        <v>3</v>
-      </c>
-      <c r="J72" s="16">
-        <v>1</v>
-      </c>
-      <c r="K72" s="17">
+      <c r="I72" s="15">
+        <v>3</v>
+      </c>
+      <c r="J72" s="15">
+        <v>1</v>
+      </c>
+      <c r="K72" s="16">
         <v>18460</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>1954</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="16">
-        <v>3</v>
-      </c>
-      <c r="E73" s="16">
-        <v>2</v>
-      </c>
-      <c r="F73" s="17">
+      <c r="D73" s="15">
+        <v>3</v>
+      </c>
+      <c r="E73" s="15">
+        <v>2</v>
+      </c>
+      <c r="F73" s="16">
         <v>19909</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="16">
-        <v>3</v>
-      </c>
-      <c r="J73" s="16">
-        <v>1</v>
-      </c>
-      <c r="K73" s="17">
+      <c r="H73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="15">
+        <v>3</v>
+      </c>
+      <c r="J73" s="15">
+        <v>1</v>
+      </c>
+      <c r="K73" s="16">
         <v>19908</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>1958</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="15">
         <v>5</v>
       </c>
-      <c r="E74" s="16">
-        <v>2</v>
-      </c>
-      <c r="F74" s="17">
+      <c r="E74" s="15">
+        <v>2</v>
+      </c>
+      <c r="F74" s="16">
         <v>21365</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="15">
         <v>6</v>
       </c>
-      <c r="J74" s="16">
-        <v>3</v>
-      </c>
-      <c r="K74" s="17">
+      <c r="J74" s="15">
+        <v>3</v>
+      </c>
+      <c r="K74" s="16">
         <v>21364</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>1962</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="16">
-        <v>3</v>
-      </c>
-      <c r="E75" s="16">
-        <v>1</v>
-      </c>
-      <c r="F75" s="17">
+      <c r="D75" s="15">
+        <v>3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="16">
         <v>22814</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="16">
-        <v>1</v>
-      </c>
-      <c r="J75" s="16">
-        <v>0</v>
-      </c>
-      <c r="K75" s="17">
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16">
         <v>22813</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>1966</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="15">
         <v>4</v>
       </c>
-      <c r="E76" s="16">
-        <v>2</v>
-      </c>
-      <c r="F76" s="17">
+      <c r="E76" s="15">
+        <v>2</v>
+      </c>
+      <c r="F76" s="16">
         <v>24318</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I76" s="16">
-        <v>2</v>
-      </c>
-      <c r="J76" s="16">
-        <v>1</v>
-      </c>
-      <c r="K76" s="17">
+      <c r="I76" s="15">
+        <v>2</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1</v>
+      </c>
+      <c r="K76" s="16">
         <v>24316</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>1970</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="15">
         <v>4</v>
       </c>
-      <c r="E77" s="16">
-        <v>1</v>
-      </c>
-      <c r="F77" s="17">
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="16">
         <v>25740</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="16">
-        <v>1</v>
-      </c>
-      <c r="J77" s="16">
-        <v>0</v>
-      </c>
-      <c r="K77" s="17">
+      <c r="H77" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1</v>
+      </c>
+      <c r="J77" s="15">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16">
         <v>25739</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>1974</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="16">
-        <v>2</v>
-      </c>
-      <c r="E78" s="16">
-        <v>1</v>
-      </c>
-      <c r="F78" s="17">
+      <c r="D78" s="15">
+        <v>2</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="16">
         <v>27217</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="16">
-        <v>1</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="17">
+      <c r="I78" s="15">
+        <v>1</v>
+      </c>
+      <c r="J78" s="15">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
         <v>27216</v>
       </c>
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>1978</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="16">
-        <v>3</v>
-      </c>
-      <c r="E79" s="16">
-        <v>1</v>
-      </c>
-      <c r="F79" s="17">
+      <c r="D79" s="15">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="16">
         <v>28666</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="16">
-        <v>2</v>
-      </c>
-      <c r="J79" s="16">
-        <v>1</v>
-      </c>
-      <c r="K79" s="17">
+      <c r="I79" s="15">
+        <v>2</v>
+      </c>
+      <c r="J79" s="15">
+        <v>1</v>
+      </c>
+      <c r="K79" s="16">
         <v>28665</v>
       </c>
       <c r="L79" s="10"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>1982</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="16">
-        <v>3</v>
-      </c>
-      <c r="E80" s="16">
-        <v>1</v>
-      </c>
-      <c r="F80" s="17">
+      <c r="D80" s="15">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16">
         <v>30143</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="16">
-        <v>3</v>
-      </c>
-      <c r="J80" s="16">
-        <v>2</v>
-      </c>
-      <c r="K80" s="17">
+      <c r="I80" s="15">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
+        <v>2</v>
+      </c>
+      <c r="K80" s="16">
         <v>30142</v>
       </c>
       <c r="L80" s="10"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>1986</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="16">
-        <v>3</v>
-      </c>
-      <c r="E81" s="16">
-        <v>2</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="D81" s="15">
+        <v>3</v>
+      </c>
+      <c r="E81" s="15">
+        <v>2</v>
+      </c>
+      <c r="F81" s="16">
         <v>31592</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="15">
         <v>4</v>
       </c>
-      <c r="J81" s="16">
-        <v>2</v>
-      </c>
-      <c r="K81" s="17">
+      <c r="J81" s="15">
+        <v>2</v>
+      </c>
+      <c r="K81" s="16">
         <v>31591</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>1990</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="16">
-        <v>1</v>
-      </c>
-      <c r="E82" s="16">
-        <v>0</v>
-      </c>
-      <c r="F82" s="17">
+      <c r="D82" s="15">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16">
         <v>33062</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="16">
-        <v>2</v>
-      </c>
-      <c r="J82" s="16">
-        <v>1</v>
-      </c>
-      <c r="K82" s="17">
+      <c r="I82" s="15">
+        <v>2</v>
+      </c>
+      <c r="J82" s="15">
+        <v>1</v>
+      </c>
+      <c r="K82" s="16">
         <v>33061</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>1994</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="16">
-        <v>3</v>
-      </c>
-      <c r="E83" s="16">
-        <v>2</v>
-      </c>
-      <c r="F83" s="17">
+      <c r="D83" s="15">
+        <v>3</v>
+      </c>
+      <c r="E83" s="15">
+        <v>2</v>
+      </c>
+      <c r="F83" s="16">
         <v>34532</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="15">
         <v>4</v>
       </c>
-      <c r="J83" s="16">
-        <v>0</v>
-      </c>
-      <c r="K83" s="17">
+      <c r="J83" s="15">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
         <v>34531</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>1998</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="16">
-        <v>3</v>
-      </c>
-      <c r="E84" s="16">
-        <v>0</v>
-      </c>
-      <c r="F84" s="17">
+      <c r="D84" s="15">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15">
+        <v>0</v>
+      </c>
+      <c r="F84" s="16">
         <v>35988</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="16">
-        <v>2</v>
-      </c>
-      <c r="J84" s="16">
-        <v>1</v>
-      </c>
-      <c r="K84" s="17">
+      <c r="I84" s="15">
+        <v>2</v>
+      </c>
+      <c r="J84" s="15">
+        <v>1</v>
+      </c>
+      <c r="K84" s="16">
         <v>35987</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>2002</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="16">
-        <v>2</v>
-      </c>
-      <c r="E85" s="16">
-        <v>0</v>
-      </c>
-      <c r="F85" s="17">
+      <c r="D85" s="15">
+        <v>2</v>
+      </c>
+      <c r="E85" s="15">
+        <v>0</v>
+      </c>
+      <c r="F85" s="16">
         <v>37437</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="16">
-        <v>3</v>
-      </c>
-      <c r="J85" s="16">
-        <v>2</v>
-      </c>
-      <c r="K85" s="17">
+      <c r="I85" s="15">
+        <v>3</v>
+      </c>
+      <c r="J85" s="15">
+        <v>2</v>
+      </c>
+      <c r="K85" s="16">
         <v>37436</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>2006</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="15">
         <v>5</v>
       </c>
-      <c r="E86" s="16">
-        <v>3</v>
-      </c>
-      <c r="F86" s="17">
+      <c r="E86" s="15">
+        <v>3</v>
+      </c>
+      <c r="F86" s="16">
         <v>38907</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="16">
-        <v>3</v>
-      </c>
-      <c r="J86" s="16">
-        <v>1</v>
-      </c>
-      <c r="K86" s="17">
+      <c r="I86" s="15">
+        <v>3</v>
+      </c>
+      <c r="J86" s="15">
+        <v>1</v>
+      </c>
+      <c r="K86" s="16">
         <v>38906</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>2010</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="16">
-        <v>1</v>
-      </c>
-      <c r="E87" s="16">
-        <v>3</v>
-      </c>
-      <c r="F87" s="17">
+      <c r="D87" s="15">
+        <v>1</v>
+      </c>
+      <c r="E87" s="15">
+        <v>3</v>
+      </c>
+      <c r="F87" s="16">
         <v>40370</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H87" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I87" s="16">
-        <v>3</v>
-      </c>
-      <c r="J87" s="16">
-        <v>2</v>
-      </c>
-      <c r="K87" s="17">
+      <c r="H87" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="15">
+        <v>3</v>
+      </c>
+      <c r="J87" s="15">
+        <v>2</v>
+      </c>
+      <c r="K87" s="16">
         <v>40369</v>
       </c>
       <c r="L87" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:AN6"/>
-    <mergeCell ref="B7:AN7"/>
-    <mergeCell ref="B8:AN8"/>
-    <mergeCell ref="B34:T34"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B35:T35"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="B9:AN9"/>
     <mergeCell ref="B10:AN10"/>
@@ -5306,6 +5303,12 @@
     <mergeCell ref="B14:AN14"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B6:AN6"/>
+    <mergeCell ref="B7:AN7"/>
+    <mergeCell ref="B8:AN8"/>
+    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B35:T35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13487,8 +13490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14086,7 +14089,7 @@
         <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
